--- a/Actividad 1/Actividad 1.xlsx
+++ b/Actividad 1/Actividad 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediso\Downloads\Universisdad del sur\7 Cuatrimestre\Nombiembre y Diciembre\Bases de datos\TAREAS ACADEMY\Actividad 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediso\Downloads\Universisdad del sur\7 Cuatrimestre\Nombiembre y Diciembre\Bases de datos\TAREAS ACADEMY EDISON GARCIA\Actividad 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFAD54-9374-463D-BDBA-08791D1A10F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27906B76-B670-458E-B202-BB28986C7611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -316,12 +316,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -331,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,6 +418,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +710,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D3" sqref="D3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,8 +739,8 @@
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -657,9 +749,9 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -668,9 +760,9 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -679,9 +771,9 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -690,9 +782,9 @@
       <c r="B7" s="2">
         <v>9934567890</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -701,25 +793,25 @@
       <c r="B8" s="3">
         <v>44470</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -728,9 +820,9 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -739,9 +831,9 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -817,7 +909,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D3:F12"/>
+    <mergeCell ref="D3:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
